--- a/Website/toDo_site_ZeBra.xlsx
+++ b/Website/toDo_site_ZeBra.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Prioriteit</t>
   </si>
@@ -45,10 +45,13 @@
     <t>Responsive maken site (Gebuikbaar op kleinere devices)</t>
   </si>
   <si>
-    <t>uitwerken/invoegen algemene info (aangeleverd in een word bestand)</t>
-  </si>
-  <si>
     <t>Te behandelen door</t>
+  </si>
+  <si>
+    <t>Downloadsectie selecties aanmaken met tekst over wat ze inhouden en wat je download</t>
+  </si>
+  <si>
+    <t>Uitwerken/invoegen algemene info (aangeleverd in een word bestand)</t>
   </si>
 </sst>
 </file>
@@ -399,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,7 +423,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -460,7 +463,12 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Website/toDo_site_ZeBra.xlsx
+++ b/Website/toDo_site_ZeBra.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Prioriteit</t>
   </si>
@@ -45,13 +45,43 @@
     <t>Responsive maken site (Gebuikbaar op kleinere devices)</t>
   </si>
   <si>
-    <t>Te behandelen door</t>
-  </si>
-  <si>
     <t>Downloadsectie selecties aanmaken met tekst over wat ze inhouden en wat je download</t>
   </si>
   <si>
     <t>Uitwerken/invoegen algemene info (aangeleverd in een word bestand)</t>
+  </si>
+  <si>
+    <t>Progressie</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Voltooid</t>
+  </si>
+  <si>
+    <t>In behandeling</t>
+  </si>
+  <si>
+    <t>Kleuren website uniform maken</t>
+  </si>
+  <si>
+    <t>logo's toevoegen @ rugby academy</t>
+  </si>
+  <si>
+    <t>Logo is van de navigatiebar weg gehaald, overbodig en te groot</t>
+  </si>
+  <si>
+    <t>Verschillende tekst-opbouw structuren toegepast, wachtende op volledige informatie voor verdere updates</t>
+  </si>
+  <si>
+    <t>Effix menu naar rechts verplaatst, responsive gemaakt, herkleurd</t>
+  </si>
+  <si>
+    <t>Knoppen gemaakt, verwijzen nog naar niets</t>
+  </si>
+  <si>
+    <t>Menu+tables gedaan, pagina's zelf evt updaten.</t>
   </si>
 </sst>
 </file>
@@ -67,12 +97,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,8 +129,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -104,12 +148,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:C29" totalsRowShown="0">
-  <autoFilter ref="A1:C29"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:D29" totalsRowShown="0">
+  <autoFilter ref="A1:D29"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="Prioriteit"/>
+    <tableColumn id="4" name="Status"/>
     <tableColumn id="2" name="Omschrijving"/>
-    <tableColumn id="3" name="Te behandelen door"/>
+    <tableColumn id="3" name="Progressie"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -402,73 +447,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="80.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="87" customWidth="1"/>
+    <col min="4" max="4" width="85.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>10</v>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
